--- a/biology/Botanique/Platanthera_chlorantha/Platanthera_chlorantha.xlsx
+++ b/biology/Botanique/Platanthera_chlorantha/Platanthera_chlorantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platanthère à fleurs verdâtres, Orchis verdâtre
 Platanthera chlorantha, la platanthère à fleurs verdâtres ou l'orchis verdâtre, est une espèce d'orchidées terrestres européenne.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonyme : Platanthera montana Reichenbach.
 Autres noms vernaculaires : orchis des montagnes, orchis verdâtre, platanthère à fleurs vertes.</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante élancée à grandes feuilles oblongues (2 à 3), à inflorescence dense de 10 à 30 fleurs blanc-verdâtre, odorantes, labelle étroit en forme de langue, loges polliniques divergentes et écartées.
 L'orchis verdâtre (Platanthera chlorantha) se confond facilement avec la platanthère à deux feuilles (Platanthera bifolia). Il s'en distingue par ses loges polliniques divergentes, celles de la platanthère à deux feuilles étant parallèles.
@@ -575,7 +591,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mai-août.
 </t>
@@ -606,7 +624,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de pleine lumière, sur substrats acides ou humides. Dépressions marécageuses en montagne.
 </t>
@@ -637,7 +657,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, des régions tempérées et méditerranéennes. Rare et localisée.
 </t>
@@ -668,9 +690,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure.
 </t>
         </is>
       </c>
@@ -699,7 +723,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est représentée sur des timbres préoblitérés français émis en 2003 et en 2007.
 </t>
